--- a/Propeller Packages/APC_11x7/ClvsAlpha_RPM10000.xlsx
+++ b/Propeller Packages/APC_11x7/ClvsAlpha_RPM10000.xlsx
@@ -115,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AN29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -287,28 +287,28 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.086499999999999994</v>
+        <v>-0.039100000000000003</v>
       </c>
       <c r="C2" s="0">
         <v>-11</v>
       </c>
       <c r="D2" s="0">
-        <v>0.13730000000000001</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="E2" s="0">
         <v>-12</v>
       </c>
       <c r="F2" s="0">
-        <v>0.21690000000000001</v>
+        <v>0.21790000000000001</v>
       </c>
       <c r="G2" s="0">
         <v>-12</v>
       </c>
       <c r="H2" s="0">
-        <v>0.15770000000000001</v>
+        <v>0.1578</v>
       </c>
       <c r="I2" s="0">
         <v>-12</v>
@@ -392,7 +392,7 @@
         <v>-12</v>
       </c>
       <c r="AJ2" s="0">
-        <v>-0.33139999999999997</v>
+        <v>-0.33129999999999998</v>
       </c>
       <c r="AK2" s="0">
         <v>-12</v>
@@ -409,22 +409,22 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.085999999999999993</v>
+        <v>-0.041399999999999999</v>
       </c>
       <c r="C3" s="0">
         <v>-10</v>
       </c>
       <c r="D3" s="0">
-        <v>0.13170000000000001</v>
+        <v>0.1379</v>
       </c>
       <c r="E3" s="0">
         <v>-10</v>
       </c>
       <c r="F3" s="0">
-        <v>0.22620000000000001</v>
+        <v>0.2233</v>
       </c>
       <c r="G3" s="0">
         <v>-11</v>
@@ -442,13 +442,13 @@
         <v>-11</v>
       </c>
       <c r="L3" s="0">
-        <v>0.071900000000000006</v>
+        <v>0.071800000000000003</v>
       </c>
       <c r="M3" s="0">
         <v>-11</v>
       </c>
       <c r="N3" s="0">
-        <v>-0.0025000000000000001</v>
+        <v>-0.0025999999999999999</v>
       </c>
       <c r="O3" s="0">
         <v>-11</v>
@@ -484,7 +484,7 @@
         <v>-11</v>
       </c>
       <c r="Z3" s="0">
-        <v>-0.2019</v>
+        <v>-0.20200000000000001</v>
       </c>
       <c r="AA3" s="0">
         <v>-11</v>
@@ -531,22 +531,22 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
+        <v>-10</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-0.057000000000000002</v>
+      </c>
+      <c r="C4" s="0">
         <v>-9</v>
       </c>
-      <c r="B4" s="0">
-        <v>-0.099500000000000005</v>
-      </c>
-      <c r="C4" s="0">
-        <v>-8</v>
-      </c>
       <c r="D4" s="0">
-        <v>0.023400000000000001</v>
+        <v>0.085199999999999998</v>
       </c>
       <c r="E4" s="0">
         <v>-9</v>
       </c>
       <c r="F4" s="0">
-        <v>0.14660000000000001</v>
+        <v>0.14019999999999999</v>
       </c>
       <c r="G4" s="0">
         <v>-10</v>
@@ -570,7 +570,7 @@
         <v>-10</v>
       </c>
       <c r="N4" s="0">
-        <v>0.0104</v>
+        <v>0.010500000000000001</v>
       </c>
       <c r="O4" s="0">
         <v>-10</v>
@@ -594,19 +594,19 @@
         <v>-10</v>
       </c>
       <c r="V4" s="0">
-        <v>-0.13120000000000001</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="W4" s="0">
         <v>-10</v>
       </c>
       <c r="X4" s="0">
-        <v>-0.15429999999999999</v>
+        <v>-0.1542</v>
       </c>
       <c r="Y4" s="0">
         <v>-10</v>
       </c>
       <c r="Z4" s="0">
-        <v>-0.1754</v>
+        <v>-0.17549999999999999</v>
       </c>
       <c r="AA4" s="0">
         <v>-10</v>
@@ -653,28 +653,28 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
+        <v>-9</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.058999999999999997</v>
+      </c>
+      <c r="C5" s="0">
         <v>-8</v>
       </c>
-      <c r="B5" s="0">
-        <v>-0.1338</v>
-      </c>
-      <c r="C5" s="0">
-        <v>-7</v>
-      </c>
       <c r="D5" s="0">
-        <v>-0.1961</v>
+        <v>0.0229</v>
       </c>
       <c r="E5" s="0">
         <v>-8</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.24560000000000001</v>
+        <v>-0.2475</v>
       </c>
       <c r="G5" s="0">
         <v>-9</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.076700000000000004</v>
+        <v>-0.076799999999999993</v>
       </c>
       <c r="I5" s="0">
         <v>-9</v>
@@ -686,13 +686,13 @@
         <v>-9</v>
       </c>
       <c r="L5" s="0">
-        <v>-0.20019999999999999</v>
+        <v>-0.20000000000000001</v>
       </c>
       <c r="M5" s="0">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="N5" s="0">
-        <v>-0.24560000000000001</v>
+        <v>-0.20949999999999999</v>
       </c>
       <c r="O5" s="0">
         <v>-9</v>
@@ -716,7 +716,7 @@
         <v>-9</v>
       </c>
       <c r="V5" s="0">
-        <v>-0.2989</v>
+        <v>-0.29899999999999999</v>
       </c>
       <c r="W5" s="0">
         <v>-9</v>
@@ -728,7 +728,7 @@
         <v>-9</v>
       </c>
       <c r="Z5" s="0">
-        <v>-0.192</v>
+        <v>-0.19209999999999999</v>
       </c>
       <c r="AA5" s="0">
         <v>-9</v>
@@ -775,22 +775,22 @@
     </row>
     <row r="6">
       <c r="A6" s="0">
+        <v>-8</v>
+      </c>
+      <c r="B6" s="0">
+        <v>-0.078299999999999995</v>
+      </c>
+      <c r="C6" s="0">
         <v>-7</v>
       </c>
-      <c r="B6" s="0">
-        <v>-0.1754</v>
-      </c>
-      <c r="C6" s="0">
-        <v>-6</v>
-      </c>
       <c r="D6" s="0">
-        <v>-0.35360000000000003</v>
+        <v>-0.19639999999999999</v>
       </c>
       <c r="E6" s="0">
         <v>-7</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.29509999999999997</v>
+        <v>-0.29499999999999999</v>
       </c>
       <c r="G6" s="0">
         <v>-8</v>
@@ -811,10 +811,10 @@
         <v>-0.19120000000000001</v>
       </c>
       <c r="M6" s="0">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.20949999999999999</v>
+        <v>-0.1406</v>
       </c>
       <c r="O6" s="0">
         <v>-8</v>
@@ -850,7 +850,7 @@
         <v>-8</v>
       </c>
       <c r="Z6" s="0">
-        <v>-0.3105</v>
+        <v>-0.31059999999999999</v>
       </c>
       <c r="AA6" s="0">
         <v>-8</v>
@@ -880,7 +880,7 @@
         <v>-8</v>
       </c>
       <c r="AJ6" s="0">
-        <v>-0.34399999999999997</v>
+        <v>-0.34389999999999998</v>
       </c>
       <c r="AK6" s="0">
         <v>-8</v>
@@ -897,22 +897,22 @@
     </row>
     <row r="7">
       <c r="A7" s="0">
+        <v>-7</v>
+      </c>
+      <c r="B7" s="0">
+        <v>-0.10979999999999999</v>
+      </c>
+      <c r="C7" s="0">
         <v>-6</v>
       </c>
-      <c r="B7" s="0">
-        <v>-0.25290000000000001</v>
-      </c>
-      <c r="C7" s="0">
-        <v>-5</v>
-      </c>
       <c r="D7" s="0">
-        <v>-0.37619999999999998</v>
+        <v>-0.35410000000000003</v>
       </c>
       <c r="E7" s="0">
         <v>-6</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.3412</v>
+        <v>-0.34150000000000003</v>
       </c>
       <c r="G7" s="0">
         <v>-7</v>
@@ -930,13 +930,13 @@
         <v>-7</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.1414</v>
+        <v>-0.14149999999999999</v>
       </c>
       <c r="M7" s="0">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.1406</v>
+        <v>-0.051400000000000001</v>
       </c>
       <c r="O7" s="0">
         <v>-7</v>
@@ -1019,28 +1019,28 @@
     </row>
     <row r="8">
       <c r="A8" s="0">
+        <v>-6</v>
+      </c>
+      <c r="B8" s="0">
+        <v>-0.1636</v>
+      </c>
+      <c r="C8" s="0">
         <v>-5</v>
       </c>
-      <c r="B8" s="0">
-        <v>-0.36280000000000001</v>
-      </c>
-      <c r="C8" s="0">
-        <v>-4</v>
-      </c>
       <c r="D8" s="0">
-        <v>-0.34849999999999998</v>
+        <v>-0.3765</v>
       </c>
       <c r="E8" s="0">
         <v>-5</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.31819999999999998</v>
+        <v>-0.31840000000000002</v>
       </c>
       <c r="G8" s="0">
         <v>-6</v>
       </c>
       <c r="H8" s="0">
-        <v>-0.13250000000000001</v>
+        <v>-0.1326</v>
       </c>
       <c r="I8" s="0">
         <v>-6</v>
@@ -1055,10 +1055,10 @@
         <v>-0.068000000000000005</v>
       </c>
       <c r="M8" s="0">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.051400000000000001</v>
+        <v>0.042599999999999999</v>
       </c>
       <c r="O8" s="0">
         <v>-6</v>
@@ -1082,7 +1082,7 @@
         <v>-6</v>
       </c>
       <c r="V8" s="0">
-        <v>-0.1144</v>
+        <v>-0.1145</v>
       </c>
       <c r="W8" s="0">
         <v>-6</v>
@@ -1094,7 +1094,7 @@
         <v>-6</v>
       </c>
       <c r="Z8" s="0">
-        <v>-0.14760000000000001</v>
+        <v>-0.1477</v>
       </c>
       <c r="AA8" s="0">
         <v>-6</v>
@@ -1141,28 +1141,28 @@
     </row>
     <row r="9">
       <c r="A9" s="0">
+        <v>-5</v>
+      </c>
+      <c r="B9" s="0">
+        <v>-0.25280000000000003</v>
+      </c>
+      <c r="C9" s="0">
         <v>-4</v>
       </c>
-      <c r="B9" s="0">
-        <v>-0.3992</v>
-      </c>
-      <c r="C9" s="0">
-        <v>-3</v>
-      </c>
       <c r="D9" s="0">
-        <v>-0.30919999999999998</v>
+        <v>-0.3488</v>
       </c>
       <c r="E9" s="0">
         <v>-4</v>
       </c>
       <c r="F9" s="0">
-        <v>-0.28139999999999998</v>
+        <v>-0.23830000000000001</v>
       </c>
       <c r="G9" s="0">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H9" s="0">
-        <v>-0.0016999999999999999</v>
+        <v>-0.071800000000000003</v>
       </c>
       <c r="I9" s="0">
         <v>-5</v>
@@ -1174,13 +1174,13 @@
         <v>-5</v>
       </c>
       <c r="L9" s="0">
-        <v>0.0137</v>
+        <v>0.013599999999999999</v>
       </c>
       <c r="M9" s="0">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="N9" s="0">
-        <v>0.042599999999999999</v>
+        <v>0.13950000000000001</v>
       </c>
       <c r="O9" s="0">
         <v>-5</v>
@@ -1263,22 +1263,22 @@
     </row>
     <row r="10">
       <c r="A10" s="0">
+        <v>-4</v>
+      </c>
+      <c r="B10" s="0">
+        <v>-0.3538</v>
+      </c>
+      <c r="C10" s="0">
         <v>-3</v>
       </c>
-      <c r="B10" s="0">
-        <v>-0.40899999999999998</v>
-      </c>
-      <c r="C10" s="0">
-        <v>-2</v>
-      </c>
       <c r="D10" s="0">
-        <v>-0.26650000000000001</v>
+        <v>-0.30909999999999999</v>
       </c>
       <c r="E10" s="0">
         <v>-3</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.23649999999999999</v>
+        <v>-0.1973</v>
       </c>
       <c r="G10" s="0">
         <v>-2</v>
@@ -1296,13 +1296,13 @@
         <v>-4</v>
       </c>
       <c r="L10" s="0">
-        <v>0.0998</v>
+        <v>0.099699999999999997</v>
       </c>
       <c r="M10" s="0">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="N10" s="0">
-        <v>0.13950000000000001</v>
+        <v>0.23619999999999999</v>
       </c>
       <c r="O10" s="0">
         <v>-4</v>
@@ -1385,22 +1385,22 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
+        <v>-3</v>
+      </c>
+      <c r="B11" s="0">
+        <v>-0.3871</v>
+      </c>
+      <c r="C11" s="0">
         <v>-2</v>
       </c>
-      <c r="B11" s="0">
-        <v>-0.379</v>
-      </c>
-      <c r="C11" s="0">
-        <v>-1</v>
-      </c>
       <c r="D11" s="0">
-        <v>-0.19259999999999999</v>
+        <v>-0.26650000000000001</v>
       </c>
       <c r="E11" s="0">
         <v>-1</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.1079</v>
+        <v>-0.1076</v>
       </c>
       <c r="G11" s="0">
         <v>-1</v>
@@ -1418,13 +1418,13 @@
         <v>-3</v>
       </c>
       <c r="L11" s="0">
-        <v>0.18990000000000001</v>
+        <v>0.1898</v>
       </c>
       <c r="M11" s="0">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N11" s="0">
-        <v>0.23619999999999999</v>
+        <v>0.32769999999999999</v>
       </c>
       <c r="O11" s="0">
         <v>-3</v>
@@ -1448,7 +1448,7 @@
         <v>-3</v>
       </c>
       <c r="V11" s="0">
-        <v>0.20219999999999999</v>
+        <v>0.20230000000000001</v>
       </c>
       <c r="W11" s="0">
         <v>-3</v>
@@ -1507,22 +1507,22 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
+        <v>-2</v>
+      </c>
+      <c r="B12" s="0">
+        <v>-0.37190000000000001</v>
+      </c>
+      <c r="C12" s="0">
         <v>-1</v>
       </c>
-      <c r="B12" s="0">
-        <v>-0.32779999999999998</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0</v>
-      </c>
       <c r="D12" s="0">
-        <v>-0.1008</v>
+        <v>-0.1925</v>
       </c>
       <c r="E12" s="0">
         <v>0</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.033799999999999997</v>
+        <v>-0.033599999999999998</v>
       </c>
       <c r="G12" s="0">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>-2</v>
       </c>
       <c r="L12" s="0">
-        <v>0.29210000000000003</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="M12" s="0">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="0">
-        <v>0.3276</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="O12" s="0">
         <v>-2</v>
@@ -1570,7 +1570,7 @@
         <v>-2</v>
       </c>
       <c r="V12" s="0">
-        <v>0.30969999999999998</v>
+        <v>0.30980000000000002</v>
       </c>
       <c r="W12" s="0">
         <v>-2</v>
@@ -1582,7 +1582,7 @@
         <v>-2</v>
       </c>
       <c r="Z12" s="0">
-        <v>0.28749999999999998</v>
+        <v>0.28760000000000002</v>
       </c>
       <c r="AA12" s="0">
         <v>-2</v>
@@ -1629,16 +1629,16 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.24199999999999999</v>
+        <v>-0.32879999999999998</v>
       </c>
       <c r="C13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.0361</v>
+        <v>-0.1004</v>
       </c>
       <c r="E13" s="0">
         <v>1</v>
@@ -1647,10 +1647,10 @@
         <v>0.049200000000000001</v>
       </c>
       <c r="G13" s="0">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="0">
-        <v>0.41980000000000001</v>
+        <v>0.61429999999999996</v>
       </c>
       <c r="I13" s="0">
         <v>-1</v>
@@ -1665,10 +1665,10 @@
         <v>0.40160000000000001</v>
       </c>
       <c r="M13" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.4345</v>
+        <v>0.52190000000000003</v>
       </c>
       <c r="O13" s="0">
         <v>-1</v>
@@ -1698,7 +1698,7 @@
         <v>-1</v>
       </c>
       <c r="X13" s="0">
-        <v>0.40500000000000003</v>
+        <v>0.40489999999999998</v>
       </c>
       <c r="Y13" s="0">
         <v>-1</v>
@@ -1751,28 +1751,28 @@
     </row>
     <row r="14">
       <c r="A14" s="0">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0">
+        <v>-0.25590000000000002</v>
+      </c>
+      <c r="C14" s="0">
         <v>1</v>
       </c>
-      <c r="B14" s="0">
-        <v>-0.16420000000000001</v>
-      </c>
-      <c r="C14" s="0">
-        <v>2</v>
-      </c>
       <c r="D14" s="0">
-        <v>0.070800000000000002</v>
+        <v>-0.035900000000000001</v>
       </c>
       <c r="E14" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F14" s="0">
-        <v>0.1153</v>
+        <v>0.54690000000000005</v>
       </c>
       <c r="G14" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H14" s="0">
-        <v>0.61429999999999996</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -1784,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.47660000000000002</v>
+        <v>0.47649999999999998</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="0">
-        <v>0.52190000000000003</v>
+        <v>0.60640000000000005</v>
       </c>
       <c r="O14" s="0">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="X14" s="0">
-        <v>0.5101</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="Y14" s="0">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="0">
-        <v>0.44779999999999998</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="AK14" s="0">
         <v>0</v>
@@ -1873,28 +1873,28 @@
     </row>
     <row r="15">
       <c r="A15" s="0">
+        <v>1</v>
+      </c>
+      <c r="B15" s="0">
+        <v>-0.1628</v>
+      </c>
+      <c r="C15" s="0">
         <v>2</v>
       </c>
-      <c r="B15" s="0">
-        <v>-0.090899999999999995</v>
-      </c>
-      <c r="C15" s="0">
-        <v>3</v>
-      </c>
       <c r="D15" s="0">
-        <v>0.13370000000000001</v>
+        <v>0.070999999999999994</v>
       </c>
       <c r="E15" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F15" s="0">
-        <v>0.54710000000000003</v>
+        <v>0.56789999999999996</v>
       </c>
       <c r="G15" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="0">
-        <v>0.72929999999999995</v>
+        <v>0.88560000000000005</v>
       </c>
       <c r="I15" s="0">
         <v>1</v>
@@ -1906,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="L15" s="0">
-        <v>0.55369999999999997</v>
+        <v>0.55359999999999998</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" s="0">
-        <v>0.60640000000000005</v>
+        <v>0.74009999999999998</v>
       </c>
       <c r="O15" s="0">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="Z15" s="0">
-        <v>0.61460000000000004</v>
+        <v>0.61470000000000002</v>
       </c>
       <c r="AA15" s="0">
         <v>1</v>
@@ -1978,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="AJ15" s="0">
-        <v>0.56499999999999995</v>
+        <v>0.56489999999999996</v>
       </c>
       <c r="AK15" s="0">
         <v>1</v>
@@ -1995,28 +1995,28 @@
     </row>
     <row r="16">
       <c r="A16" s="0">
+        <v>2</v>
+      </c>
+      <c r="B16" s="0">
+        <v>-0.090999999999999998</v>
+      </c>
+      <c r="C16" s="0">
         <v>3</v>
       </c>
-      <c r="B16" s="0">
-        <v>0.0066</v>
-      </c>
-      <c r="C16" s="0">
-        <v>4</v>
-      </c>
       <c r="D16" s="0">
-        <v>0.33700000000000002</v>
+        <v>0.13339999999999999</v>
       </c>
       <c r="E16" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0">
-        <v>0.56769999999999998</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="G16" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H16" s="0">
-        <v>0.80789999999999995</v>
+        <v>0.95030000000000003</v>
       </c>
       <c r="I16" s="0">
         <v>2</v>
@@ -2028,13 +2028,13 @@
         <v>2</v>
       </c>
       <c r="L16" s="0">
-        <v>0.67700000000000005</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="M16" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" s="0">
-        <v>0.74009999999999998</v>
+        <v>0.80189999999999995</v>
       </c>
       <c r="O16" s="0">
         <v>2</v>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="AJ16" s="0">
-        <v>0.66400000000000003</v>
+        <v>0.66390000000000005</v>
       </c>
       <c r="AK16" s="0">
         <v>2</v>
@@ -2117,28 +2117,28 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
+        <v>3</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.0054999999999999997</v>
+      </c>
+      <c r="C17" s="0">
         <v>4</v>
       </c>
-      <c r="B17" s="0">
-        <v>0.1249</v>
-      </c>
-      <c r="C17" s="0">
-        <v>7</v>
-      </c>
       <c r="D17" s="0">
-        <v>0.41010000000000002</v>
+        <v>0.3372</v>
       </c>
       <c r="E17" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0">
-        <v>0.59860000000000002</v>
+        <v>0.6018</v>
       </c>
       <c r="G17" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H17" s="0">
-        <v>0.88549999999999995</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="I17" s="0">
         <v>3</v>
@@ -2153,10 +2153,10 @@
         <v>0.7298</v>
       </c>
       <c r="M17" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N17" s="0">
-        <v>0.80189999999999995</v>
+        <v>0.86609999999999998</v>
       </c>
       <c r="O17" s="0">
         <v>3</v>
@@ -2239,28 +2239,28 @@
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="0">
-        <v>0.1668</v>
+        <v>0.125</v>
       </c>
       <c r="C18" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="0">
-        <v>0.4264</v>
+        <v>0.38450000000000001</v>
       </c>
       <c r="E18" s="0">
         <v>13</v>
       </c>
       <c r="F18" s="0">
-        <v>0.66890000000000005</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="G18" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" s="0">
-        <v>0.95020000000000004</v>
+        <v>0.90580000000000005</v>
       </c>
       <c r="I18" s="0">
         <v>4</v>
@@ -2275,10 +2275,10 @@
         <v>0.79979999999999996</v>
       </c>
       <c r="M18" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" s="0">
-        <v>0.86599999999999999</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="O18" s="0">
         <v>4</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="V18" s="0">
-        <v>0.91859999999999997</v>
+        <v>0.91869999999999996</v>
       </c>
       <c r="W18" s="0">
         <v>4</v>
       </c>
       <c r="X18" s="0">
-        <v>0.91720000000000002</v>
+        <v>0.91710000000000003</v>
       </c>
       <c r="Y18" s="0">
         <v>4</v>
@@ -2361,28 +2361,28 @@
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" s="0">
-        <v>0.2064</v>
+        <v>0.1668</v>
       </c>
       <c r="C19" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="0">
-        <v>0.46860000000000002</v>
+        <v>0.40920000000000001</v>
       </c>
       <c r="E19" s="0">
         <v>14</v>
       </c>
       <c r="F19" s="0">
-        <v>0.67220000000000002</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="G19" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H19" s="0">
-        <v>0.98219999999999996</v>
+        <v>0.78639999999999999</v>
       </c>
       <c r="I19" s="0">
         <v>5</v>
@@ -2394,13 +2394,13 @@
         <v>5</v>
       </c>
       <c r="L19" s="0">
-        <v>0.86660000000000004</v>
+        <v>0.86650000000000005</v>
       </c>
       <c r="M19" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N19" s="0">
-        <v>0.92900000000000005</v>
+        <v>0.99670000000000003</v>
       </c>
       <c r="O19" s="0">
         <v>5</v>
@@ -2436,7 +2436,7 @@
         <v>5</v>
       </c>
       <c r="Z19" s="0">
-        <v>0.98729999999999996</v>
+        <v>0.98740000000000006</v>
       </c>
       <c r="AA19" s="0">
         <v>5</v>
@@ -2483,28 +2483,28 @@
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="0">
-        <v>0.2606</v>
+        <v>0.20630000000000001</v>
       </c>
       <c r="C20" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D20" s="0">
-        <v>0.4909</v>
+        <v>0.4264</v>
       </c>
       <c r="E20" s="0">
         <v>15</v>
       </c>
       <c r="F20" s="0">
-        <v>0.69059999999999999</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="G20" s="0">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H20" s="0">
-        <v>0.90580000000000005</v>
+        <v>0.81669999999999998</v>
       </c>
       <c r="I20" s="0">
         <v>6</v>
@@ -2519,10 +2519,10 @@
         <v>0.9436</v>
       </c>
       <c r="M20" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N20" s="0">
-        <v>0.99670000000000003</v>
+        <v>1.0670999999999999</v>
       </c>
       <c r="O20" s="0">
         <v>6</v>
@@ -2546,19 +2546,19 @@
         <v>6</v>
       </c>
       <c r="V20" s="0">
-        <v>1.0569</v>
+        <v>1.0569999999999999</v>
       </c>
       <c r="W20" s="0">
         <v>6</v>
       </c>
       <c r="X20" s="0">
-        <v>1.0617000000000001</v>
+        <v>1.0616000000000001</v>
       </c>
       <c r="Y20" s="0">
         <v>6</v>
       </c>
       <c r="Z20" s="0">
-        <v>1.0649</v>
+        <v>1.065</v>
       </c>
       <c r="AA20" s="0">
         <v>6</v>
@@ -2582,7 +2582,7 @@
         <v>6</v>
       </c>
       <c r="AH20" s="0">
-        <v>1.061</v>
+        <v>1.0609</v>
       </c>
       <c r="AI20" s="0">
         <v>6</v>
@@ -2605,28 +2605,22 @@
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0">
-        <v>0.28100000000000003</v>
+        <v>0.26179999999999998</v>
       </c>
       <c r="C21" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0">
-        <v>0.50349999999999995</v>
-      </c>
-      <c r="E21" s="0">
-        <v>16</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0.71679999999999999</v>
+        <v>0.46889999999999998</v>
       </c>
       <c r="G21" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H21" s="0">
-        <v>0.79459999999999997</v>
+        <v>0.86519999999999997</v>
       </c>
       <c r="I21" s="0">
         <v>7</v>
@@ -2641,10 +2635,10 @@
         <v>1.0025</v>
       </c>
       <c r="M21" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N21" s="0">
-        <v>1.0670999999999999</v>
+        <v>1.1420999999999999</v>
       </c>
       <c r="O21" s="0">
         <v>7</v>
@@ -2668,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="V21" s="0">
-        <v>1.1366000000000001</v>
+        <v>1.1367</v>
       </c>
       <c r="W21" s="0">
         <v>7</v>
@@ -2680,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="Z21" s="0">
-        <v>1.1488</v>
+        <v>1.1489</v>
       </c>
       <c r="AA21" s="0">
         <v>7</v>
@@ -2704,13 +2698,13 @@
         <v>7</v>
       </c>
       <c r="AH21" s="0">
-        <v>1.1459999999999999</v>
+        <v>1.1458999999999999</v>
       </c>
       <c r="AI21" s="0">
         <v>7</v>
       </c>
       <c r="AJ21" s="0">
-        <v>1.1319999999999999</v>
+        <v>1.1321000000000001</v>
       </c>
       <c r="AK21" s="0">
         <v>7</v>
@@ -2722,33 +2716,21 @@
         <v>7</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.39500000000000002</v>
+        <v>0.39510000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="0">
-        <v>0.32640000000000002</v>
+        <v>0.2808</v>
       </c>
       <c r="C22" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D22" s="0">
-        <v>0.56879999999999997</v>
-      </c>
-      <c r="E22" s="0">
-        <v>17</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0.75029999999999997</v>
-      </c>
-      <c r="G22" s="0">
-        <v>15</v>
-      </c>
-      <c r="H22" s="0">
-        <v>0.85680000000000001</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="I22" s="0">
         <v>8</v>
@@ -2760,13 +2742,13 @@
         <v>8</v>
       </c>
       <c r="L22" s="0">
-        <v>1.0723</v>
+        <v>1.0722</v>
       </c>
       <c r="M22" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N22" s="0">
-        <v>1.1420999999999999</v>
+        <v>1.2128000000000001</v>
       </c>
       <c r="O22" s="0">
         <v>8</v>
@@ -2802,7 +2784,7 @@
         <v>8</v>
       </c>
       <c r="Z22" s="0">
-        <v>1.2311000000000001</v>
+        <v>1.2313000000000001</v>
       </c>
       <c r="AA22" s="0">
         <v>8</v>
@@ -2826,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="AH22" s="0">
-        <v>1.2188000000000001</v>
+        <v>1.2186999999999999</v>
       </c>
       <c r="AI22" s="0">
         <v>8</v>
@@ -2849,22 +2831,16 @@
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="0">
-        <v>0.35460000000000003</v>
+        <v>0.32629999999999998</v>
       </c>
       <c r="C23" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" s="0">
-        <v>0.60009999999999997</v>
-      </c>
-      <c r="G23" s="0">
-        <v>16</v>
-      </c>
-      <c r="H23" s="0">
-        <v>0.90259999999999996</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="I23" s="0">
         <v>9</v>
@@ -2879,10 +2855,10 @@
         <v>1.1426000000000001</v>
       </c>
       <c r="M23" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N23" s="0">
-        <v>1.2128000000000001</v>
+        <v>1.2827</v>
       </c>
       <c r="O23" s="0">
         <v>9</v>
@@ -2906,7 +2882,7 @@
         <v>9</v>
       </c>
       <c r="V23" s="0">
-        <v>1.2970999999999999</v>
+        <v>1.2971999999999999</v>
       </c>
       <c r="W23" s="0">
         <v>9</v>
@@ -2918,7 +2894,7 @@
         <v>9</v>
       </c>
       <c r="Z23" s="0">
-        <v>1.3023</v>
+        <v>1.3024</v>
       </c>
       <c r="AA23" s="0">
         <v>9</v>
@@ -2965,16 +2941,16 @@
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" s="0">
-        <v>0.39460000000000001</v>
+        <v>0.35460000000000003</v>
       </c>
       <c r="C24" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="0">
-        <v>0.65710000000000002</v>
+        <v>0.56779999999999997</v>
       </c>
       <c r="I24" s="0">
         <v>10</v>
@@ -2989,10 +2965,10 @@
         <v>1.228</v>
       </c>
       <c r="M24" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N24" s="0">
-        <v>1.2827</v>
+        <v>1.3665</v>
       </c>
       <c r="O24" s="0">
         <v>10</v>
@@ -3016,7 +2992,7 @@
         <v>10</v>
       </c>
       <c r="V24" s="0">
-        <v>1.3664000000000001</v>
+        <v>1.3666</v>
       </c>
       <c r="W24" s="0">
         <v>10</v>
@@ -3028,7 +3004,7 @@
         <v>10</v>
       </c>
       <c r="Z24" s="0">
-        <v>1.3634</v>
+        <v>1.3634999999999999</v>
       </c>
       <c r="AA24" s="0">
         <v>10</v>
@@ -3075,16 +3051,16 @@
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0">
-        <v>0.4395</v>
+        <v>0.39479999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0">
-        <v>0.67520000000000002</v>
+        <v>0.59989999999999999</v>
       </c>
       <c r="I25" s="0">
         <v>11</v>
@@ -3099,10 +3075,10 @@
         <v>1.2404</v>
       </c>
       <c r="M25" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N25" s="0">
-        <v>1.3665</v>
+        <v>1.3851</v>
       </c>
       <c r="O25" s="0">
         <v>11</v>
@@ -3126,7 +3102,7 @@
         <v>11</v>
       </c>
       <c r="V25" s="0">
-        <v>1.4134</v>
+        <v>1.4135</v>
       </c>
       <c r="W25" s="0">
         <v>11</v>
@@ -3138,7 +3114,7 @@
         <v>11</v>
       </c>
       <c r="Z25" s="0">
-        <v>1.4166000000000001</v>
+        <v>1.4167000000000001</v>
       </c>
       <c r="AA25" s="0">
         <v>11</v>
@@ -3162,7 +3138,7 @@
         <v>11</v>
       </c>
       <c r="AH25" s="0">
-        <v>1.3708</v>
+        <v>1.3707</v>
       </c>
       <c r="AI25" s="0">
         <v>11</v>
@@ -3180,21 +3156,21 @@
         <v>11</v>
       </c>
       <c r="AN25" s="0">
-        <v>0.58130000000000004</v>
+        <v>0.58140000000000003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
+        <v>12</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.43869999999999998</v>
+      </c>
+      <c r="C26" s="0">
         <v>15</v>
       </c>
-      <c r="B26" s="0">
-        <v>0.52710000000000001</v>
-      </c>
-      <c r="C26" s="0">
-        <v>17</v>
-      </c>
       <c r="D26" s="0">
-        <v>0.70550000000000002</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="I26" s="0">
         <v>14</v>
@@ -3206,13 +3182,13 @@
         <v>12</v>
       </c>
       <c r="L26" s="0">
-        <v>1.1987000000000001</v>
+        <v>1.1984999999999999</v>
       </c>
       <c r="M26" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N26" s="0">
-        <v>1.3851</v>
+        <v>1.3977</v>
       </c>
       <c r="O26" s="0">
         <v>12</v>
@@ -3242,13 +3218,13 @@
         <v>12</v>
       </c>
       <c r="X26" s="0">
-        <v>1.4576</v>
+        <v>1.4577</v>
       </c>
       <c r="Y26" s="0">
         <v>12</v>
       </c>
       <c r="Z26" s="0">
-        <v>1.4567000000000001</v>
+        <v>1.4568000000000001</v>
       </c>
       <c r="AA26" s="0">
         <v>12</v>
@@ -3272,7 +3248,7 @@
         <v>12</v>
       </c>
       <c r="AH26" s="0">
-        <v>1.3726</v>
+        <v>1.3725000000000001</v>
       </c>
       <c r="AI26" s="0">
         <v>12</v>
@@ -3295,10 +3271,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27" s="0">
-        <v>0.57589999999999997</v>
+        <v>0.4708</v>
       </c>
       <c r="I27" s="0">
         <v>15</v>
@@ -3310,13 +3286,13 @@
         <v>13</v>
       </c>
       <c r="L27" s="0">
-        <v>1.2793000000000001</v>
+        <v>1.2791999999999999</v>
       </c>
       <c r="M27" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N27" s="0">
-        <v>1.3977</v>
+        <v>1.4532</v>
       </c>
       <c r="O27" s="0">
         <v>13</v>
@@ -3340,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="V27" s="0">
-        <v>1.4866999999999999</v>
+        <v>1.4867999999999999</v>
       </c>
       <c r="W27" s="0">
         <v>13</v>
@@ -3352,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="Z27" s="0">
-        <v>1.4755</v>
+        <v>1.4756</v>
       </c>
       <c r="AA27" s="0">
         <v>13</v>
@@ -3399,28 +3375,16 @@
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B28" s="0">
-        <v>0.62170000000000003</v>
-      </c>
-      <c r="I28" s="0">
-        <v>16</v>
-      </c>
-      <c r="J28" s="0">
-        <v>0.91279999999999995</v>
-      </c>
-      <c r="K28" s="0">
-        <v>16</v>
-      </c>
-      <c r="L28" s="0">
-        <v>0.97770000000000001</v>
+        <v>0.52649999999999997</v>
       </c>
       <c r="M28" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N28" s="0">
-        <v>1.4532</v>
+        <v>1.1607000000000001</v>
       </c>
       <c r="O28" s="0">
         <v>14</v>
@@ -3456,7 +3420,7 @@
         <v>14</v>
       </c>
       <c r="Z28" s="0">
-        <v>1.4650000000000001</v>
+        <v>1.4652000000000001</v>
       </c>
       <c r="AA28" s="0">
         <v>14</v>
@@ -3480,13 +3444,13 @@
         <v>14</v>
       </c>
       <c r="AH28" s="0">
-        <v>1.3499000000000001</v>
+        <v>1.3500000000000001</v>
       </c>
       <c r="AI28" s="0">
         <v>14</v>
       </c>
       <c r="AJ28" s="0">
-        <v>1.2952999999999999</v>
+        <v>1.2954000000000001</v>
       </c>
       <c r="AK28" s="0">
         <v>14</v>
@@ -3498,40 +3462,16 @@
         <v>14</v>
       </c>
       <c r="AN28" s="0">
-        <v>0.70679999999999998</v>
+        <v>0.70689999999999997</v>
       </c>
     </row>
     <row r="29">
-      <c r="I29" s="0">
-        <v>17</v>
-      </c>
-      <c r="J29" s="0">
-        <v>0.94410000000000005</v>
-      </c>
-      <c r="K29" s="0">
-        <v>17</v>
-      </c>
-      <c r="L29" s="0">
-        <v>1.0101</v>
-      </c>
-      <c r="M29" s="0">
-        <v>15</v>
-      </c>
-      <c r="N29" s="0">
-        <v>1.1606000000000001</v>
-      </c>
       <c r="O29" s="0">
         <v>15</v>
       </c>
       <c r="P29" s="0">
         <v>1.4597</v>
       </c>
-      <c r="Q29" s="0">
-        <v>16</v>
-      </c>
-      <c r="R29" s="0">
-        <v>1.4657</v>
-      </c>
       <c r="S29" s="0">
         <v>15</v>
       </c>
@@ -3548,13 +3488,13 @@
         <v>15</v>
       </c>
       <c r="X29" s="0">
-        <v>1.4636</v>
+        <v>1.4637</v>
       </c>
       <c r="Y29" s="0">
         <v>15</v>
       </c>
       <c r="Z29" s="0">
-        <v>1.4317</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="AA29" s="0">
         <v>15</v>
@@ -3584,7 +3524,7 @@
         <v>15</v>
       </c>
       <c r="AJ29" s="0">
-        <v>1.256</v>
+        <v>1.2561</v>
       </c>
       <c r="AK29" s="0">
         <v>15</v>
@@ -3596,161 +3536,7 @@
         <v>15</v>
       </c>
       <c r="AN29" s="0">
-        <v>0.747</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="M30" s="0">
-        <v>17</v>
-      </c>
-      <c r="N30" s="0">
-        <v>1.0732999999999999</v>
-      </c>
-      <c r="O30" s="0">
-        <v>16</v>
-      </c>
-      <c r="P30" s="0">
-        <v>1.2932999999999999</v>
-      </c>
-      <c r="Q30" s="0">
-        <v>17</v>
-      </c>
-      <c r="R30" s="0">
-        <v>1.3751</v>
-      </c>
-      <c r="S30" s="0">
-        <v>16</v>
-      </c>
-      <c r="T30" s="0">
-        <v>1.4665999999999999</v>
-      </c>
-      <c r="U30" s="0">
-        <v>16</v>
-      </c>
-      <c r="V30" s="0">
-        <v>1.4563999999999999</v>
-      </c>
-      <c r="W30" s="0">
-        <v>17</v>
-      </c>
-      <c r="X30" s="0">
-        <v>1.3855</v>
-      </c>
-      <c r="Y30" s="0">
-        <v>16</v>
-      </c>
-      <c r="Z30" s="0">
-        <v>1.3939999999999999</v>
-      </c>
-      <c r="AA30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AB30" s="0">
-        <v>1.3749</v>
-      </c>
-      <c r="AC30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AD30" s="0">
-        <v>1.3615999999999999</v>
-      </c>
-      <c r="AE30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AF30" s="0">
-        <v>1.3346</v>
-      </c>
-      <c r="AG30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AH30" s="0">
-        <v>1.2934000000000001</v>
-      </c>
-      <c r="AI30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AJ30" s="0">
-        <v>1.2162</v>
-      </c>
-      <c r="AK30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AL30" s="0">
-        <v>0.97709999999999997</v>
-      </c>
-      <c r="AM30" s="0">
-        <v>16</v>
-      </c>
-      <c r="AN30" s="0">
-        <v>0.78659999999999997</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="O31" s="0">
-        <v>17</v>
-      </c>
-      <c r="P31" s="0">
-        <v>1.2506999999999999</v>
-      </c>
-      <c r="S31" s="0">
-        <v>17</v>
-      </c>
-      <c r="T31" s="0">
-        <v>1.4199999999999999</v>
-      </c>
-      <c r="U31" s="0">
-        <v>17</v>
-      </c>
-      <c r="V31" s="0">
-        <v>1.4078999999999999</v>
-      </c>
-      <c r="Y31" s="0">
-        <v>17</v>
-      </c>
-      <c r="Z31" s="0">
-        <v>1.3685</v>
-      </c>
-      <c r="AA31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AB31" s="0">
-        <v>1.3511</v>
-      </c>
-      <c r="AC31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AD31" s="0">
-        <v>1.3371</v>
-      </c>
-      <c r="AE31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AF31" s="0">
-        <v>1.3028</v>
-      </c>
-      <c r="AG31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AH31" s="0">
-        <v>1.2539</v>
-      </c>
-      <c r="AI31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AJ31" s="0">
-        <v>1.1766000000000001</v>
-      </c>
-      <c r="AK31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AL31" s="0">
-        <v>0.99450000000000005</v>
-      </c>
-      <c r="AM31" s="0">
-        <v>17</v>
-      </c>
-      <c r="AN31" s="0">
-        <v>0.82579999999999998</v>
+        <v>0.74709999999999999</v>
       </c>
     </row>
   </sheetData>
